--- a/tabellen/concept/5.1/objectentabellen/objecten-concept-5.1-HC-houtconstructies.xlsx
+++ b/tabellen/concept/5.1/objectentabellen/objecten-concept-5.1-HC-houtconstructies.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\100289\OneDrive\GitHub\NLCS\tabellen\concept\5.1\objectentabellen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{18D925EE-08FC-4E64-A77A-6A1D46C0ACF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{AA66BD60-BF82-4314-A3AF-9E0B1617A252}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-1620" windowWidth="38640" windowHeight="21240" xr2:uid="{31A3CF66-DAEA-4323-9F78-7683E1F4FF58}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{4727EB85-55AA-4307-B6A3-11836AD8A413}"/>
   </bookViews>
   <sheets>
-    <sheet name="objecten-concept-5.1-HC-hulpcon" sheetId="1" r:id="rId1"/>
+    <sheet name="objecten-concept-5.1-HC-houtcon" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'objecten-concept-5.1-HC-hulpcon'!$A$1:$BS$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'objecten-concept-5.1-HC-houtcon'!$A$1:$BS$14</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -1269,16 +1269,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88A98273-2BCF-4961-92DD-B2BE1475A7F6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F379949C-4850-4136-AB88-624650CC7DF4}">
   <dimension ref="A1:BS14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M29" sqref="M29"/>
+    <sheetView tabSelected="1" topLeftCell="BA1" workbookViewId="0">
+      <selection activeCell="BB1" sqref="BB1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="5" max="5" width="39.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:71" x14ac:dyDescent="0.35">
@@ -4058,7 +4058,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:BS14" xr:uid="{88A98273-2BCF-4961-92DD-B2BE1475A7F6}">
+  <autoFilter ref="A1:BS14" xr:uid="{F379949C-4850-4136-AB88-624650CC7DF4}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:BS14">
       <sortCondition ref="E1:E14"/>
     </sortState>
